--- a/test_data/固定资产.xlsx
+++ b/test_data/固定资产.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9390"/>
+    <workbookView windowWidth="28080" windowHeight="14070" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="记固定资产测试数据" sheetId="1" r:id="rId1"/>
-    <sheet name="固定资产生成凭证数据" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="记固定资产普票测试数据" sheetId="1" r:id="rId1"/>
+    <sheet name="记固定资产专票测试数据" sheetId="2" r:id="rId2"/>
+    <sheet name="记无形资产普票测试数据" sheetId="3" r:id="rId3"/>
+    <sheet name="记无形资产专票测试数据" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>购买日期</t>
   </si>
@@ -57,25 +58,394 @@
     <t>内部代表</t>
   </si>
   <si>
+    <t>笔记本电脑-12</t>
+  </si>
+  <si>
+    <t>电子设备</t>
+  </si>
+  <si>
+    <t>512.1</t>
+  </si>
+  <si>
+    <t>固定-普票-管理部门-内部代表-电子设备</t>
+  </si>
+  <si>
+    <t>别墅-12</t>
+  </si>
+  <si>
+    <t>房屋、建筑</t>
+  </si>
+  <si>
+    <t>512.2</t>
+  </si>
+  <si>
+    <t>固定-普票-管理部门-内部代表-房屋、建筑</t>
+  </si>
+  <si>
+    <t>桌子-12</t>
+  </si>
+  <si>
+    <t>工器具、家具</t>
+  </si>
+  <si>
+    <t>512.3</t>
+  </si>
+  <si>
+    <t>固定-普票-管理部门-内部代表-工器具、家具</t>
+  </si>
+  <si>
+    <t>卡车-12</t>
+  </si>
+  <si>
+    <t>机械设备、运输工具</t>
+  </si>
+  <si>
+    <t>512.4</t>
+  </si>
+  <si>
+    <t>固定-普票-管理部门-内部代表-机械设备、运输工具</t>
+  </si>
+  <si>
+    <t>自行车-12</t>
+  </si>
+  <si>
+    <t>交通工具</t>
+  </si>
+  <si>
+    <t>512.5</t>
+  </si>
+  <si>
+    <t>固定-普票-管理部门-内部代表-交通工具</t>
+  </si>
+  <si>
+    <t>销售部门</t>
+  </si>
+  <si>
     <t>笔记本电脑-11</t>
   </si>
   <si>
-    <t>电子设备</t>
-  </si>
-  <si>
-    <t>5111</t>
-  </si>
-  <si>
-    <t>固定-普票-管理部门-内部代表-电子设备-5111</t>
+    <t>511.1</t>
+  </si>
+  <si>
+    <t>固定-普票-销售部门-内部代表-电子设备</t>
   </si>
   <si>
     <t>别墅-11</t>
   </si>
   <si>
-    <t>房屋、建筑</t>
-  </si>
-  <si>
-    <t>固定-普票-管理部门-内部代表-房屋、建筑-5112</t>
+    <t>511.2</t>
+  </si>
+  <si>
+    <t>固定-普票-销售部门-内部代表-房屋、建筑</t>
+  </si>
+  <si>
+    <t>桌子-11</t>
+  </si>
+  <si>
+    <t>511.3</t>
+  </si>
+  <si>
+    <t>固定-普票-销售部门-内部代表-工器具、家具</t>
+  </si>
+  <si>
+    <t>卡车-11</t>
+  </si>
+  <si>
+    <t>511.4</t>
+  </si>
+  <si>
+    <t>固定-普票-销售部门-内部代表-机械设备、运输工具</t>
+  </si>
+  <si>
+    <t>自行车-11</t>
+  </si>
+  <si>
+    <t>511.5</t>
+  </si>
+  <si>
+    <t>固定-普票-销售部门-内部代表-交通工具</t>
+  </si>
+  <si>
+    <t>税率</t>
+  </si>
+  <si>
+    <t>专票</t>
+  </si>
+  <si>
+    <t>1.5%</t>
+  </si>
+  <si>
+    <t>笔记本电脑-22</t>
+  </si>
+  <si>
+    <t>522.1</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>别墅-22</t>
+  </si>
+  <si>
+    <t>522.2</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>桌子-22</t>
+  </si>
+  <si>
+    <t>522.3</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>卡车-22</t>
+  </si>
+  <si>
+    <t>522.4</t>
+  </si>
+  <si>
+    <t>11%</t>
+  </si>
+  <si>
+    <t>自行车-22</t>
+  </si>
+  <si>
+    <t>522.5</t>
+  </si>
+  <si>
+    <t>13%</t>
+  </si>
+  <si>
+    <t>笔记本电脑-21</t>
+  </si>
+  <si>
+    <t>521.1</t>
+  </si>
+  <si>
+    <t>17%</t>
+  </si>
+  <si>
+    <t>别墅-21</t>
+  </si>
+  <si>
+    <t>521.2</t>
+  </si>
+  <si>
+    <t>桌子-21</t>
+  </si>
+  <si>
+    <t>521.3</t>
+  </si>
+  <si>
+    <t>卡车-21</t>
+  </si>
+  <si>
+    <t>521.4</t>
+  </si>
+  <si>
+    <t>自行车-21</t>
+  </si>
+  <si>
+    <t>521.5</t>
+  </si>
+  <si>
+    <t>智商-12</t>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>612.1</t>
+  </si>
+  <si>
+    <t>无形-普票-管理部门-内部代表-其他</t>
+  </si>
+  <si>
+    <t>免费使用权-12</t>
+  </si>
+  <si>
+    <t>特许权、使用权</t>
+  </si>
+  <si>
+    <t>612.2</t>
+  </si>
+  <si>
+    <t>无形-普票-管理部门-内部代表-特许权、使用权</t>
+  </si>
+  <si>
+    <t>机械自动化-12</t>
+  </si>
+  <si>
+    <t>专利/非专利技术</t>
+  </si>
+  <si>
+    <t>612.3</t>
+  </si>
+  <si>
+    <t>无形-普票-管理部门-内部代表-专利/非专利技术</t>
+  </si>
+  <si>
+    <t>管家-12</t>
+  </si>
+  <si>
+    <t>软件</t>
+  </si>
+  <si>
+    <t>612.4</t>
+  </si>
+  <si>
+    <t>无形-普票-管理部门-内部代表-软件</t>
+  </si>
+  <si>
+    <t>情商-12</t>
+  </si>
+  <si>
+    <t>知识产权(IP)</t>
+  </si>
+  <si>
+    <t>612.5</t>
+  </si>
+  <si>
+    <t>无形-普票-管理部门-内部代表-知识产权(IP)</t>
+  </si>
+  <si>
+    <t>智商-11</t>
+  </si>
+  <si>
+    <t>611.1</t>
+  </si>
+  <si>
+    <t>无形-普票-销售部门-内部代表-其他</t>
+  </si>
+  <si>
+    <t>免费使用权-11</t>
+  </si>
+  <si>
+    <t>611.2</t>
+  </si>
+  <si>
+    <t>无形-普票-销售部门-内部代表-特许权、使用权</t>
+  </si>
+  <si>
+    <t>机械自动化-11</t>
+  </si>
+  <si>
+    <t>611.3</t>
+  </si>
+  <si>
+    <t>无形-普票-销售部门-内部代表-专利/非专利技术</t>
+  </si>
+  <si>
+    <t>管家-11</t>
+  </si>
+  <si>
+    <t>611.4</t>
+  </si>
+  <si>
+    <t>无形-普票-销售部门-内部代表-软件</t>
+  </si>
+  <si>
+    <t>情商-11</t>
+  </si>
+  <si>
+    <t>611.5</t>
+  </si>
+  <si>
+    <t>无形-普票-销售部门-内部代表-知识产权(IP)</t>
+  </si>
+  <si>
+    <t>智商-22</t>
+  </si>
+  <si>
+    <t>622.1</t>
+  </si>
+  <si>
+    <t>无形-专票-管理部门-内部代表-其他</t>
+  </si>
+  <si>
+    <t>免费使用权-22</t>
+  </si>
+  <si>
+    <t>622.2</t>
+  </si>
+  <si>
+    <t>无形-专票-管理部门-内部代表-特许权、使用权</t>
+  </si>
+  <si>
+    <t>机械自动化-22</t>
+  </si>
+  <si>
+    <t>622.3</t>
+  </si>
+  <si>
+    <t>无形-专票-管理部门-内部代表-专利/非专利技术</t>
+  </si>
+  <si>
+    <t>管家-22</t>
+  </si>
+  <si>
+    <t>622.4</t>
+  </si>
+  <si>
+    <t>无形-专票-管理部门-内部代表-软件</t>
+  </si>
+  <si>
+    <t>情商-22</t>
+  </si>
+  <si>
+    <t>622.5</t>
+  </si>
+  <si>
+    <t>无形-专票-管理部门-内部代表-知识产权(IP)</t>
+  </si>
+  <si>
+    <t>智商-21</t>
+  </si>
+  <si>
+    <t>621.1</t>
+  </si>
+  <si>
+    <t>无形-专票-销售部门-内部代表-其他</t>
+  </si>
+  <si>
+    <t>免费使用权-21</t>
+  </si>
+  <si>
+    <t>621.2</t>
+  </si>
+  <si>
+    <t>无形-专票-销售部门-内部代表-特许权、使用权</t>
+  </si>
+  <si>
+    <t>机械自动化-21</t>
+  </si>
+  <si>
+    <t>621.3</t>
+  </si>
+  <si>
+    <t>无形-专票-销售部门-内部代表-专利/非专利技术</t>
+  </si>
+  <si>
+    <t>管家-21</t>
+  </si>
+  <si>
+    <t>621.4</t>
+  </si>
+  <si>
+    <t>无形-专票-销售部门-内部代表-软件</t>
+  </si>
+  <si>
+    <t>情商-21</t>
+  </si>
+  <si>
+    <t>621.5</t>
+  </si>
+  <si>
+    <t>无形-专票-销售部门-内部代表-知识产权(IP)</t>
   </si>
 </sst>
 </file>
@@ -83,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -105,97 +475,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -211,6 +490,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -218,11 +548,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +560,38 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,8 +604,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,6 +628,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,13 +718,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,157 +802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +819,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,21 +849,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -489,30 +859,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,6 +887,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -557,10 +927,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,147 +939,165 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,51 +1448,51 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1127,10 +1515,10 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
@@ -1156,17 +1544,260 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5112</v>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B11 B2:B3 B4:B5 B7:B8 B9:B10 B12:B49">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C2:C3 C4:C5 C7:C8 C9:C10 C12:C44">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F6 F7:F11 F12:F50">
+      <formula1>"电子设备,房屋、建筑,工器具、家具,机械设备、运输工具,交通工具"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1176,14 +1807,389 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="7" max="7" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="48.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B11">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C2:C3 C4:C5 C7:C8 C9:C10">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33">
+      <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E50">
+      <formula1>"'1.5%,3%,5%,6%,11%,13%,17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G6 G7:G11">
+      <formula1>"电子设备,房屋、建筑,工器具、家具,机械设备、运输工具,交通工具"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1193,16 +2199,747 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="52.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B11 B2:B3 B4:B5 B7:B8 B9:B10">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C2:C3 C4:C5 C7:C8 C9:C10">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49">
+      <formula1>"其它,特许权、使用权,专利/非专利技术,软件,知识产权(IP)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="42.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3:B11">
+      <formula1>"普票,专票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C2:C3 C4:C5 C7:C8 C9:C10">
+      <formula1>"销售部门,管理部门"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33">
+      <formula1>"'1.5%,'3%,'5%,'6%,'11%,'13%,'17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E34:E50">
+      <formula1>"'1.5%,3%,5%,6%,11%,13%,17%"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G49">
+      <formula1>"其它,特许权、使用权,专利/非专利技术,软件,知识产权(IP)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/test_data/固定资产.xlsx
+++ b/test_data/固定资产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="28080" windowHeight="14070" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="记固定资产普票测试数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>购买日期</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>专票</t>
+  </si>
+  <si>
+    <t>(个)内部代表</t>
   </si>
   <si>
     <t>1.5%</t>
@@ -453,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -476,32 +479,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,28 +523,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,13 +552,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -571,16 +560,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -603,17 +598,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,187 +631,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,32 +822,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -872,6 +849,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -883,6 +869,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,20 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1809,12 +1812,13 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="48.375" customWidth="1"/>
@@ -1863,13 +1867,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1878,7 +1882,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -1895,13 +1899,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -1910,7 +1914,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -1927,13 +1931,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1942,7 +1946,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -1959,13 +1963,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1974,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -1991,13 +1995,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -2006,7 +2010,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -2023,13 +2027,13 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -2038,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -2055,13 +2059,13 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -2070,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -2087,13 +2091,13 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -2102,7 +2106,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -2119,13 +2123,13 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -2134,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
@@ -2151,13 +2155,13 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -2166,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -2202,13 +2206,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
     <col min="5" max="5" width="17.75" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="52.75" customWidth="1"/>
@@ -2254,22 +2258,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2283,22 +2287,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2312,22 +2316,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2341,22 +2345,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2370,22 +2374,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2399,22 +2403,22 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2428,22 +2432,22 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2457,22 +2461,22 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2486,22 +2490,22 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2515,22 +2519,22 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2556,13 +2560,13 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="11.625" customWidth="1"/>
@@ -2612,25 +2616,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2644,25 +2648,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2676,25 +2680,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2708,25 +2712,25 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2740,25 +2744,25 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2772,25 +2776,25 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2804,25 +2808,25 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2836,25 +2840,25 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2868,25 +2872,25 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2900,25 +2904,25 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/固定资产.xlsx
+++ b/test_data/固定资产.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14070" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="记固定资产普票测试数据" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
   <si>
     <t>购买日期</t>
   </si>
@@ -55,7 +55,7 @@
     <t>管理部门</t>
   </si>
   <si>
-    <t>内部代表</t>
+    <t>(个)内部代表</t>
   </si>
   <si>
     <t>笔记本电脑-12</t>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>专票</t>
-  </si>
-  <si>
-    <t>(个)内部代表</t>
   </si>
   <si>
     <t>1.5%</t>
@@ -1453,8 +1450,8 @@
   <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1812,8 +1809,8 @@
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1867,13 +1864,13 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1882,7 +1879,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -1899,13 +1896,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -1914,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
         <v>20</v>
@@ -1931,13 +1928,13 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
         <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
       </c>
       <c r="G4" t="s">
         <v>22</v>
@@ -1946,7 +1943,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -1963,13 +1960,13 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
         <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>62</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1978,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
@@ -1995,13 +1992,13 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
         <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -2010,7 +2007,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -2027,13 +2024,13 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -2042,7 +2039,7 @@
         <v>9</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -2059,13 +2056,13 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -2074,7 +2071,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
         <v>39</v>
@@ -2091,13 +2088,13 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>22</v>
@@ -2106,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
@@ -2123,13 +2120,13 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -2138,7 +2135,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
@@ -2155,13 +2152,13 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
         <v>30</v>
@@ -2170,7 +2167,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -2258,22 +2255,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
         <v>79</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" t="s">
         <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2287,22 +2284,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" t="s">
         <v>85</v>
-      </c>
-      <c r="I3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2316,22 +2313,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
         <v>87</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" t="s">
         <v>89</v>
-      </c>
-      <c r="I4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2345,22 +2342,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
         <v>91</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" t="s">
         <v>93</v>
-      </c>
-      <c r="I5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2374,22 +2371,22 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
         <v>95</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" t="s">
         <v>97</v>
-      </c>
-      <c r="I6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2403,22 +2400,22 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" t="s">
         <v>100</v>
-      </c>
-      <c r="I7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2432,22 +2429,22 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" t="s">
         <v>103</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2461,22 +2458,22 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" t="s">
         <v>106</v>
-      </c>
-      <c r="I9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2490,22 +2487,22 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" t="s">
         <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2519,22 +2516,22 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" t="s">
         <v>112</v>
-      </c>
-      <c r="I11" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2616,25 +2613,25 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2648,25 +2645,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" t="s">
         <v>118</v>
-      </c>
-      <c r="J3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2680,25 +2677,25 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" t="s">
         <v>121</v>
-      </c>
-      <c r="J4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2712,25 +2709,25 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" t="s">
         <v>124</v>
-      </c>
-      <c r="J5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2744,25 +2741,25 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" t="s">
         <v>127</v>
-      </c>
-      <c r="J6" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2776,25 +2773,25 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" t="s">
         <v>130</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2808,25 +2805,25 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" t="s">
         <v>133</v>
-      </c>
-      <c r="J8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2840,25 +2837,25 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G9" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" t="s">
         <v>136</v>
-      </c>
-      <c r="J9" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2872,25 +2869,25 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" t="s">
         <v>139</v>
-      </c>
-      <c r="J10" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2904,25 +2901,25 @@
         <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" t="s">
         <v>142</v>
-      </c>
-      <c r="J11" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/固定资产.xlsx
+++ b/test_data/固定资产.xlsx
@@ -7,17 +7,39 @@
     <workbookView windowWidth="28080" windowHeight="14070"/>
   </bookViews>
   <sheets>
-    <sheet name="记固定资产普票测试数据" sheetId="1" r:id="rId1"/>
-    <sheet name="记固定资产专票测试数据" sheetId="2" r:id="rId2"/>
-    <sheet name="记无形资产普票测试数据" sheetId="3" r:id="rId3"/>
-    <sheet name="记无形资产专票测试数据" sheetId="4" r:id="rId4"/>
+    <sheet name="说明" sheetId="5" r:id="rId1"/>
+    <sheet name="记固定资产普票测试数据" sheetId="1" r:id="rId2"/>
+    <sheet name="记固定资产专票测试数据" sheetId="2" r:id="rId3"/>
+    <sheet name="记无形资产普票测试数据" sheetId="3" r:id="rId4"/>
+    <sheet name="记无形资产专票测试数据" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>记录数目</t>
+  </si>
+  <si>
+    <t>固定资产-普票</t>
+  </si>
+  <si>
+    <t>固定资产-专票</t>
+  </si>
+  <si>
+    <t>无形资产-普票</t>
+  </si>
+  <si>
+    <t>无形资产-专票</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
   <si>
     <t>购买日期</t>
   </si>
@@ -453,8 +475,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -475,6 +497,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -490,21 +551,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -512,7 +558,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,16 +587,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,68 +635,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,103 +650,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,79 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,6 +847,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -837,11 +874,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,6 +905,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -873,49 +942,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -927,10 +955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,137 +967,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,6 +1114,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1448,10 +1482,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:2">
+      <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:2">
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:2">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7">
+        <f>SUM(B2:B5)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="记固定资产普票测试数据!A1" display="固定资产-普票"/>
+    <hyperlink ref="A3" location="记固定资产专票测试数据!A1" display="固定资产-专票"/>
+    <hyperlink ref="A4" location="记无形资产普票测试数据!A1" display="无形资产-普票"/>
+    <hyperlink ref="A5" location="记无形资产专票测试数据!A1" display="无形资产-专票"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1469,321 +1578,321 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>27</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -1823,354 +1932,354 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>56</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>65</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>68</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>71</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>75</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2197,7 +2306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
@@ -2217,321 +2326,321 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>80</v>
+        <v>16</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>84</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>88</v>
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>92</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>96</v>
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>99</v>
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>102</v>
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>111</v>
+        <v>16</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2552,13 +2661,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2572,354 +2681,354 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>114</v>
+        <v>16</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>120</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>123</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>126</v>
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>129</v>
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>69</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>132</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="J8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>135</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>138</v>
+        <v>16</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>141</v>
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
